--- a/Origin/Results1.xlsx
+++ b/Origin/Results1.xlsx
@@ -590,7 +590,7 @@
         <v>11.35</v>
       </c>
       <c r="E10">
-        <v>8260.93</v>
+        <v>43.03</v>
       </c>
       <c r="F10">
         <v>16</v>
@@ -610,7 +610,7 @@
         <v>11.62</v>
       </c>
       <c r="E11">
-        <v>33262.18</v>
+        <v>173.24</v>
       </c>
       <c r="F11">
         <v>63</v>
@@ -630,7 +630,7 @@
         <v>11.87</v>
       </c>
       <c r="E12">
-        <v>42989.55</v>
+        <v>223.9</v>
       </c>
       <c r="F12">
         <v>81</v>
@@ -650,7 +650,7 @@
         <v>12.12</v>
       </c>
       <c r="E13">
-        <v>50526.24</v>
+        <v>263.16</v>
       </c>
       <c r="F13">
         <v>95</v>
@@ -670,7 +670,7 @@
         <v>12.38</v>
       </c>
       <c r="E14">
-        <v>57742.04</v>
+        <v>300.74</v>
       </c>
       <c r="F14">
         <v>109</v>
@@ -690,7 +690,7 @@
         <v>12.38</v>
       </c>
       <c r="E15">
-        <v>9179.700000000001</v>
+        <v>47.81</v>
       </c>
       <c r="F15">
         <v>18</v>
@@ -710,7 +710,7 @@
         <v>12.39</v>
       </c>
       <c r="E16">
-        <v>21997.47</v>
+        <v>114.57</v>
       </c>
       <c r="F16">
         <v>42</v>
@@ -907,7 +907,7 @@
         <v>280.36</v>
       </c>
       <c r="E26">
-        <v>223958.11</v>
+        <v>1166.45</v>
       </c>
       <c r="F26">
         <v>424</v>

--- a/Origin/Results1.xlsx
+++ b/Origin/Results1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Index</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -590,7 +593,7 @@
         <v>11.35</v>
       </c>
       <c r="E10">
-        <v>43.03</v>
+        <v>43.05</v>
       </c>
       <c r="F10">
         <v>16</v>
@@ -610,7 +613,7 @@
         <v>11.62</v>
       </c>
       <c r="E11">
-        <v>173.24</v>
+        <v>173.55</v>
       </c>
       <c r="F11">
         <v>63</v>
@@ -630,7 +633,7 @@
         <v>11.87</v>
       </c>
       <c r="E12">
-        <v>223.9</v>
+        <v>224.35</v>
       </c>
       <c r="F12">
         <v>81</v>
@@ -650,7 +653,7 @@
         <v>12.12</v>
       </c>
       <c r="E13">
-        <v>263.16</v>
+        <v>263.75</v>
       </c>
       <c r="F13">
         <v>95</v>
@@ -670,7 +673,7 @@
         <v>12.38</v>
       </c>
       <c r="E14">
-        <v>300.74</v>
+        <v>301.49</v>
       </c>
       <c r="F14">
         <v>109</v>
@@ -690,7 +693,7 @@
         <v>12.38</v>
       </c>
       <c r="E15">
-        <v>47.81</v>
+        <v>47.83</v>
       </c>
       <c r="F15">
         <v>18</v>
@@ -710,7 +713,7 @@
         <v>12.39</v>
       </c>
       <c r="E16">
-        <v>114.57</v>
+        <v>114.69</v>
       </c>
       <c r="F16">
         <v>42</v>
@@ -907,10 +910,27 @@
         <v>280.36</v>
       </c>
       <c r="E26">
-        <v>1166.45</v>
+        <v>1168.71</v>
       </c>
       <c r="F26">
         <v>424</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <v>39.42857142857143</v>
+      </c>
+      <c r="D27">
+        <v>40.05142857142857</v>
+      </c>
+      <c r="E27">
+        <v>166.9585714285714</v>
+      </c>
+      <c r="F27">
+        <v>60.57142857142857</v>
       </c>
     </row>
   </sheetData>
